--- a/src/main/resources/excel/Possessive Adjective.xlsx
+++ b/src/main/resources/excel/Possessive Adjective.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="360">
   <si>
     <t xml:space="preserve">My cat is sleeping on the sofa</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t xml:space="preserve">aɪ lɛft maɪ kiz ɑn ðə ˈkɪʧən ˈkaʊntər</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXAMPLE</t>
   </si>
   <si>
     <t xml:space="preserve">My favorite color is blue</t>
@@ -1310,27 +1313,27 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="44.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="46.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="42.21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="46.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="42.21"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1338,154 +1341,196 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>35</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>38</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1504,182 +1549,224 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="38.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="53.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="38.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="53.37"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>47</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>50</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>59</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>68</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B11" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>77</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>80</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>83</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B14" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>86</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>89</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1698,183 +1785,225 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="51.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="0" t="s">
         <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" s="0" t="s">
         <v>95</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D3" s="0" t="s">
         <v>98</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="0" t="s">
         <v>101</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="D5" s="0" t="s">
         <v>104</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="0" t="s">
         <v>107</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="0" t="s">
         <v>110</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="0" t="s">
         <v>113</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D9" s="0" t="s">
         <v>116</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D10" s="0" t="s">
         <v>119</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="0" t="s">
         <v>122</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D12" s="0" t="s">
         <v>125</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D13" s="0" t="s">
         <v>128</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D14" s="0" t="s">
         <v>131</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D15" s="0" t="s">
         <v>134</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1893,182 +2022,224 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D34" activeCellId="0" sqref="D34"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="45.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.34"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B1" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>151</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B9" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>163</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B11" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B12" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B13" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B14" s="0" t="s">
         <v>175</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B15" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>179</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2087,182 +2258,224 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="59.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="58.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="58.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D1" s="0" t="s">
         <v>182</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="0" t="s">
         <v>185</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="0" t="s">
         <v>188</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D4" s="0" t="s">
         <v>191</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D5" s="0" t="s">
         <v>194</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" s="0" t="s">
         <v>197</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D7" s="0" t="s">
         <v>200</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D8" s="0" t="s">
         <v>203</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D9" s="0" t="s">
         <v>206</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="0" t="s">
         <v>209</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="D11" s="0" t="s">
         <v>212</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D12" s="0" t="s">
         <v>215</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="D13" s="0" t="s">
         <v>218</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D14" s="0" t="s">
         <v>221</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D15" s="0" t="s">
         <v>224</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2281,182 +2494,224 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D45" activeCellId="0" sqref="D45"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="49.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="64.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="61.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="64.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="61.86"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B1" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>227</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>229</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>230</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>233</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>235</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>236</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>239</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>242</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>245</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>247</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>248</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B9" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>251</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>254</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B11" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>257</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B12" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>260</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>263</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B14" s="0" t="s">
         <v>265</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>266</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>269</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2475,182 +2730,224 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D40" activeCellId="0" sqref="D40"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="33.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="70.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="70.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B1" s="0" t="s">
         <v>271</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>272</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>275</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>278</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>281</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>283</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>284</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>287</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B7" s="0" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>290</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>293</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B9" s="0" t="s">
         <v>295</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>296</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>299</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="0" t="s">
         <v>301</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>302</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="B12" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>305</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B13" s="0" t="s">
         <v>307</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>308</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B14" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>311</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B15" s="0" t="s">
         <v>313</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>314</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2669,182 +2966,224 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B52" activeCellId="0" sqref="B52"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="50.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="57.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="49.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="57.98"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D1" s="0" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="B2" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D2" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B3" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D3" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="B4" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B6" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B7" s="0" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="B8" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B9" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B10" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B11" s="0" t="s">
         <v>345</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B12" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B13" s="0" t="s">
         <v>351</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="B14" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="13" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B15" s="0" t="s">
         <v>357</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>358</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
